--- a/문서파일보관용/최종문서용/DevelopEnvironment.xlsx
+++ b/문서파일보관용/최종문서용/DevelopEnvironment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Develop Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 DB 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,9 +247,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,27 +579,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -604,7 +613,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -616,7 +625,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -630,7 +639,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
@@ -642,7 +651,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -656,7 +665,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
@@ -668,7 +677,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -682,7 +691,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -693,8 +702,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -709,12 +718,25 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>

--- a/문서파일보관용/최종문서용/DevelopEnvironment.xlsx
+++ b/문서파일보관용/최종문서용/DevelopEnvironment.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunar\OneDrive\바탕 화면\Git\ERPProject\문서파일보관용\최종문서용\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B6893-55D8-4DB6-9001-4A07F82F7157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="-615" yWindow="405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,13 +169,25 @@
   </si>
   <si>
     <t>Apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃 저장소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -267,6 +288,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -315,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +372,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,6 +424,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,11 +616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,27 +637,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -613,7 +671,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -625,7 +683,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -639,7 +697,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
@@ -651,7 +709,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -665,7 +723,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
@@ -677,7 +735,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -691,7 +749,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -703,7 +761,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -717,7 +775,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
@@ -728,11 +786,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
+    <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -753,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -766,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
